--- a/downloaded_files/MDPS371_Tutorial-35511.xlsx
+++ b/downloaded_files/MDPS371_Tutorial-35511.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -112,15 +112,6 @@
   </x:si>
   <x:si>
     <x:t>Seif el din motaz ahmed ezzat khattab</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4220120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عاصم على محمد ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Assem Ali Mohamed Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>1220254</x:t>
@@ -398,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1077,7 +1068,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45918.3691414699</x:v>
+        <x:v>45907.4155685995</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1109,7 +1100,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4155685995</x:v>
+        <x:v>45907.4206363079</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1141,7 +1132,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4206363079</x:v>
+        <x:v>45907.4212048958</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1173,7 +1164,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4212048958</x:v>
+        <x:v>45906.6690387384</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1205,7 +1196,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6690387384</x:v>
+        <x:v>45907.4181934375</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1237,7 +1228,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4181934375</x:v>
+        <x:v>45914.5300445255</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1269,7 +1260,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.5300445255</x:v>
+        <x:v>45906.4152015046</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1301,7 +1292,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4152015046</x:v>
+        <x:v>45906.6651020833</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1333,7 +1324,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6651020833</x:v>
+        <x:v>45906.6660905903</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1365,7 +1356,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6660905903</x:v>
+        <x:v>45906.6660722222</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1397,7 +1388,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6660722222</x:v>
+        <x:v>45906.6660945602</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1429,7 +1420,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6660945602</x:v>
+        <x:v>45906.6664649306</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1461,7 +1452,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6664649306</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1493,7 +1484,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45909.9109657755</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1525,7 +1516,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.9109657755</x:v>
+        <x:v>45909.4159330671</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1557,7 +1548,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.4159330671</x:v>
+        <x:v>45912.9608052083</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1589,7 +1580,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45912.9608052083</x:v>
+        <x:v>45909.4179330671</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1621,7 +1612,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.4179330671</x:v>
+        <x:v>45906.6649665856</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1638,38 +1629,6 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45906.6649665856</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS371_Tutorial-35511.xlsx
+++ b/downloaded_files/MDPS371_Tutorial-35511.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,6 +103,15 @@
   </x:si>
   <x:si>
     <x:t>Ramez Labib Helmy Labib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210053</x:t>
+  </x:si>
+  <x:si>
+    <x:t>رنا عاطف سعد عرفه موسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rana Atef saad arafa</x:t>
   </x:si>
   <x:si>
     <x:t>1210242</x:t>
@@ -389,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -689,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -780,7 +789,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.420996794</x:v>
+        <x:v>45923.7598320949</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -1036,7 +1045,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6646386574</x:v>
+        <x:v>45923.9138647338</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1068,7 +1077,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4155685995</x:v>
+        <x:v>45906.6646386574</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1100,7 +1109,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4206363079</x:v>
+        <x:v>45907.4155685995</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1132,7 +1141,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4212048958</x:v>
+        <x:v>45907.4206363079</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1164,7 +1173,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6690387384</x:v>
+        <x:v>45907.4212048958</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1196,7 +1205,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4181934375</x:v>
+        <x:v>45906.6690387384</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1228,7 +1237,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.5300445255</x:v>
+        <x:v>45907.4181934375</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1260,7 +1269,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4152015046</x:v>
+        <x:v>45914.5300445255</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1292,7 +1301,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6651020833</x:v>
+        <x:v>45906.4152015046</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1324,7 +1333,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6660905903</x:v>
+        <x:v>45906.6651020833</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1356,7 +1365,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6660722222</x:v>
+        <x:v>45906.6660905903</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1388,7 +1397,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6660945602</x:v>
+        <x:v>45906.6660722222</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1420,7 +1429,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6664649306</x:v>
+        <x:v>45906.6660945602</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1452,7 +1461,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45906.6664649306</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1484,7 +1493,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.9109657755</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1516,7 +1525,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.4159330671</x:v>
+        <x:v>45909.9109657755</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1548,7 +1557,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.9608052083</x:v>
+        <x:v>45909.4159330671</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1580,7 +1589,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.4179330671</x:v>
+        <x:v>45912.9608052083</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1612,7 +1621,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6649665856</x:v>
+        <x:v>45909.4179330671</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1629,6 +1638,38 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45906.6649665856</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS371_Tutorial-35511.xlsx
+++ b/downloaded_files/MDPS371_Tutorial-35511.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -283,6 +283,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Salem Eid Salem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد فاروق قنديل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Mohamed Farouk Kandel</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -398,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1670,6 +1679,38 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45924.8699445949</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS371_Tutorial-35511.xlsx
+++ b/downloaded_files/MDPS371_Tutorial-35511.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -78,15 +78,6 @@
     <x:t>Belal Atef Mohammed Ahmed</x:t>
   </x:si>
   <x:si>
-    <x:t>1220166</x:t>
-  </x:si>
-  <x:si>
-    <x:t>جولى حازم شوقى سليمان داود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>julie hazem shawky soliman Dawoud</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210099</x:t>
   </x:si>
   <x:si>
@@ -114,6 +105,15 @@
     <x:t>Rana Atef saad arafa</x:t>
   </x:si>
   <x:si>
+    <x:t>1210232</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زينة جميل إسماعيل إسماعيل العباسي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zeena Jameel Ismail Ismail Alabasy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210242</x:t>
   </x:si>
   <x:si>
@@ -123,15 +123,6 @@
     <x:t>Seif el din motaz ahmed ezzat khattab</x:t>
   </x:si>
   <x:si>
-    <x:t>1220254</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن محمد عثمان عبد الحميد مرسي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Mohammed Othman morsi</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220014</x:t>
   </x:si>
   <x:si>
@@ -168,15 +159,6 @@
     <x:t>Omar Tarek Refaat Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1220328</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمرو عماد صبحى حسن محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AMR EMAD SOBHY HASSAN MOHAMED</x:t>
-  </x:si>
-  <x:si>
     <x:t>1190475</x:t>
   </x:si>
   <x:si>
@@ -186,6 +168,15 @@
     <x:t>Amr Maher Nofal Abd Elrahman</x:t>
   </x:si>
   <x:si>
+    <x:t>1210409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فاطمه عبدالعزيز محمد عبده</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fatma Abdelaziz Mohamed Abdo</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210110</x:t>
   </x:si>
   <x:si>
@@ -240,13 +231,22 @@
     <x:t>Mahmoud medhat mahmoud mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1220144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مروان نزار محمد عباس احمد عبدالشافى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marwan Nezar Mohamed Abbas Ahmed Abdelshafy</x:t>
+    <x:t>1220199</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود مصطفى سيد امين سيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Mostafa Sayed Ameen Sayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210307</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى شادي محمود محمد الشجيع</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Shady Mahmoud Mohamed Elshagie</x:t>
   </x:si>
   <x:si>
     <x:t>1200276</x:t>
@@ -256,6 +256,15 @@
   </x:si>
   <x:si>
     <x:t>mostafa mohamed saied ibrahim omar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210417</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصعب محمد عبد اللاه على عبد اللاه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mosaab Mohammed Abdella Ali</x:t>
   </x:si>
   <x:si>
     <x:t>4230182</x:t>
@@ -407,7 +416,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +716,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -715,7 +724,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="31.150625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="28.840625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="49.810625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -958,7 +967,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45915.8966711458</x:v>
+        <x:v>45906.6678975347</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -990,7 +999,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6678975347</x:v>
+        <x:v>45909.4221868056</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1022,7 +1031,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45909.4221868056</x:v>
+        <x:v>45923.9138647338</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1054,7 +1063,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45923.9138647338</x:v>
+        <x:v>45927.4977295949</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1118,7 +1127,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4155685995</x:v>
+        <x:v>45907.4206363079</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1150,7 +1159,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4206363079</x:v>
+        <x:v>45907.4212048958</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1182,7 +1191,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4212048958</x:v>
+        <x:v>45906.6690387384</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1214,7 +1223,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6690387384</x:v>
+        <x:v>45927.4361290509</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1246,7 +1255,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4181934375</x:v>
+        <x:v>45906.4152015046</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1278,7 +1287,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.5300445255</x:v>
+        <x:v>45927.6599183218</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1310,7 +1319,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4152015046</x:v>
+        <x:v>45906.6651020833</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1342,7 +1351,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6651020833</x:v>
+        <x:v>45906.6660905903</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1374,7 +1383,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6660905903</x:v>
+        <x:v>45906.6660722222</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1406,7 +1415,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6660722222</x:v>
+        <x:v>45927.4940615741</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1438,7 +1447,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6660945602</x:v>
+        <x:v>45906.6664649306</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1470,7 +1479,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6664649306</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1502,7 +1511,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45927.4167009259</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1534,7 +1543,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.9109657755</x:v>
+        <x:v>45927.4158835301</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1598,7 +1607,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45912.9608052083</x:v>
+        <x:v>45927.4150893171</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1630,7 +1639,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.4179330671</x:v>
+        <x:v>45912.9608052083</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1662,7 +1671,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6649665856</x:v>
+        <x:v>45909.4179330671</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1694,7 +1703,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45924.8699445949</x:v>
+        <x:v>45906.6649665856</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1711,6 +1720,38 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45924.8699445949</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS371_Tutorial-35511.xlsx
+++ b/downloaded_files/MDPS371_Tutorial-35511.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,15 +31,6 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4230136</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ابراهيم محمود ابراهيم محمد ابوالنور</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IBRAHIM MAHMOUD IBRAHIM MOHAMED ABOELNOUR</x:t>
   </x:si>
   <x:si>
     <x:t>4230141</x:t>
@@ -416,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -716,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -725,7 +716,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="28.840625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="49.810625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="44.840625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -807,7 +798,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45923.7598320949</x:v>
+        <x:v>45907.4164195255</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -839,7 +830,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4164195255</x:v>
+        <x:v>45906.6673890394</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -871,7 +862,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6673890394</x:v>
+        <x:v>45906.7918039352</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -903,7 +894,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.7918039352</x:v>
+        <x:v>45907.4307780093</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -935,7 +926,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4307780093</x:v>
+        <x:v>45906.6678975347</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -967,7 +958,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6678975347</x:v>
+        <x:v>45909.4221868056</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -999,7 +990,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.4221868056</x:v>
+        <x:v>45923.9138647338</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1031,7 +1022,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45923.9138647338</x:v>
+        <x:v>45927.4977295949</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1063,7 +1054,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.4977295949</x:v>
+        <x:v>45906.6646386574</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1095,7 +1086,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6646386574</x:v>
+        <x:v>45907.4206363079</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1127,7 +1118,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4206363079</x:v>
+        <x:v>45907.4212048958</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1159,7 +1150,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4212048958</x:v>
+        <x:v>45906.6690387384</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1191,7 +1182,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6690387384</x:v>
+        <x:v>45927.4361290509</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1223,7 +1214,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.4361290509</x:v>
+        <x:v>45906.4152015046</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1255,7 +1246,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4152015046</x:v>
+        <x:v>45927.6599183218</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1287,7 +1278,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.6599183218</x:v>
+        <x:v>45906.6651020833</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1319,7 +1310,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6651020833</x:v>
+        <x:v>45906.6660905903</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1351,7 +1342,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6660905903</x:v>
+        <x:v>45927.6842726042</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1383,7 +1374,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6660722222</x:v>
+        <x:v>45927.4940615741</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1415,7 +1406,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.4940615741</x:v>
+        <x:v>45906.6664649306</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1447,7 +1438,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6664649306</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1479,7 +1470,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45927.4167009259</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1511,7 +1502,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.4167009259</x:v>
+        <x:v>45927.4158835301</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1543,7 +1534,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.4158835301</x:v>
+        <x:v>45909.4159330671</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1575,7 +1566,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.4159330671</x:v>
+        <x:v>45927.4150893171</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1607,7 +1598,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45927.4150893171</x:v>
+        <x:v>45912.9608052083</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1639,7 +1630,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45912.9608052083</x:v>
+        <x:v>45909.4179330671</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1671,7 +1662,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.4179330671</x:v>
+        <x:v>45906.6649665856</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1703,7 +1694,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6649665856</x:v>
+        <x:v>45924.8699445949</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1720,38 +1711,6 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45924.8699445949</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS371_Tutorial-35511.xlsx
+++ b/downloaded_files/MDPS371_Tutorial-35511.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -193,15 +193,6 @@
   </x:si>
   <x:si>
     <x:t>Muhammed emam muhammed radwan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210159</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد صبرى حسن محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Sabry Hassan Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1200264</x:t>
@@ -407,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1374,7 +1365,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.4940615741</x:v>
+        <x:v>45906.6664649306</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1406,7 +1397,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6664649306</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1438,7 +1429,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45927.4167009259</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1470,7 +1461,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.4167009259</x:v>
+        <x:v>45927.4158835301</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1502,7 +1493,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.4158835301</x:v>
+        <x:v>45909.4159330671</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1534,7 +1525,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.4159330671</x:v>
+        <x:v>45927.4150893171</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1566,7 +1557,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45927.4150893171</x:v>
+        <x:v>45912.9608052083</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1598,7 +1589,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45912.9608052083</x:v>
+        <x:v>45909.4179330671</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1630,7 +1621,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.4179330671</x:v>
+        <x:v>45906.6649665856</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1662,7 +1653,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6649665856</x:v>
+        <x:v>45924.8699445949</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1679,38 +1670,6 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45924.8699445949</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS371_Tutorial-35511.xlsx
+++ b/downloaded_files/MDPS371_Tutorial-35511.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -139,15 +139,6 @@
   </x:si>
   <x:si>
     <x:t>Omar Sobhy Ellethy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220264</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر طارق رفعت محمد عبداللاه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Tarek Refaat Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1190475</x:t>
@@ -398,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1173,7 +1164,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.4361290509</x:v>
+        <x:v>45906.4152015046</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1205,7 +1196,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4152015046</x:v>
+        <x:v>45927.6599183218</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1237,7 +1228,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.6599183218</x:v>
+        <x:v>45906.6651020833</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1269,7 +1260,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6651020833</x:v>
+        <x:v>45906.6660905903</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1301,7 +1292,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6660905903</x:v>
+        <x:v>45927.6842726042</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1333,7 +1324,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.6842726042</x:v>
+        <x:v>45906.6664649306</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1365,7 +1356,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6664649306</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1397,7 +1388,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45927.4167009259</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1429,7 +1420,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.4167009259</x:v>
+        <x:v>45927.4158835301</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1461,7 +1452,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.4158835301</x:v>
+        <x:v>45909.4159330671</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1493,7 +1484,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4159330671</x:v>
+        <x:v>45927.4150893171</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1525,7 +1516,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.4150893171</x:v>
+        <x:v>45912.9608052083</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1557,7 +1548,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.9608052083</x:v>
+        <x:v>45909.4179330671</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1589,7 +1580,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.4179330671</x:v>
+        <x:v>45906.6649665856</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1621,7 +1612,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6649665856</x:v>
+        <x:v>45924.8699445949</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1638,38 +1629,6 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45924.8699445949</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS371_Tutorial-35511.xlsx
+++ b/downloaded_files/MDPS371_Tutorial-35511.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -121,6 +121,15 @@
   </x:si>
   <x:si>
     <x:t>Alaa Eldin Usama Ahmed Ali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220186</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر تامر حسن على الموافى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Tamer Hassan Ali ElMowafy</x:t>
   </x:si>
   <x:si>
     <x:t>1220133</x:t>
@@ -389,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -689,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1100,7 +1109,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4212048958</x:v>
+        <x:v>45930.4012959144</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1132,7 +1141,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6690387384</x:v>
+        <x:v>45907.4212048958</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1164,7 +1173,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4152015046</x:v>
+        <x:v>45906.6690387384</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1196,7 +1205,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.6599183218</x:v>
+        <x:v>45906.4152015046</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1228,7 +1237,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6651020833</x:v>
+        <x:v>45927.6599183218</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1260,7 +1269,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6660905903</x:v>
+        <x:v>45906.6651020833</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1292,7 +1301,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.6842726042</x:v>
+        <x:v>45906.6660905903</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1324,7 +1333,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6664649306</x:v>
+        <x:v>45927.6842726042</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1356,7 +1365,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45906.6664649306</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1388,7 +1397,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.4167009259</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1420,7 +1429,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.4158835301</x:v>
+        <x:v>45927.4167009259</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1452,7 +1461,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4159330671</x:v>
+        <x:v>45927.4158835301</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1484,7 +1493,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.4150893171</x:v>
+        <x:v>45909.4159330671</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1516,7 +1525,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.9608052083</x:v>
+        <x:v>45927.4150893171</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1548,7 +1557,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.4179330671</x:v>
+        <x:v>45912.9608052083</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1580,7 +1589,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6649665856</x:v>
+        <x:v>45909.4179330671</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1612,7 +1621,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45924.8699445949</x:v>
+        <x:v>45906.6649665856</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1629,6 +1638,38 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45924.8699445949</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS371_Tutorial-35511.xlsx
+++ b/downloaded_files/MDPS371_Tutorial-35511.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -121,15 +121,6 @@
   </x:si>
   <x:si>
     <x:t>Alaa Eldin Usama Ahmed Ali</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220186</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر تامر حسن على الموافى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Tamer Hassan Ali ElMowafy</x:t>
   </x:si>
   <x:si>
     <x:t>1220133</x:t>
@@ -398,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1109,7 +1100,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45930.4012959144</x:v>
+        <x:v>45907.4212048958</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1141,7 +1132,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4212048958</x:v>
+        <x:v>45906.6690387384</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1173,7 +1164,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6690387384</x:v>
+        <x:v>45906.4152015046</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1205,7 +1196,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4152015046</x:v>
+        <x:v>45927.6599183218</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1237,7 +1228,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.6599183218</x:v>
+        <x:v>45906.6651020833</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1269,7 +1260,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6651020833</x:v>
+        <x:v>45906.6660905903</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1301,7 +1292,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6660905903</x:v>
+        <x:v>45927.6842726042</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1333,7 +1324,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.6842726042</x:v>
+        <x:v>45906.6664649306</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1365,7 +1356,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6664649306</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1397,7 +1388,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45927.4167009259</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1429,7 +1420,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.4167009259</x:v>
+        <x:v>45927.4158835301</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1461,7 +1452,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.4158835301</x:v>
+        <x:v>45909.4159330671</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1493,7 +1484,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4159330671</x:v>
+        <x:v>45927.4150893171</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1525,7 +1516,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.4150893171</x:v>
+        <x:v>45912.9608052083</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1557,7 +1548,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.9608052083</x:v>
+        <x:v>45909.4179330671</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1589,7 +1580,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.4179330671</x:v>
+        <x:v>45906.6649665856</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1621,7 +1612,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6649665856</x:v>
+        <x:v>45924.8699445949</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1638,38 +1629,6 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45924.8699445949</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
